--- a/Implicit_bias_pavlovia/task/html/resources/pos_neg_train.xlsx
+++ b/Implicit_bias_pavlovia/task/html/resources/pos_neg_train.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpzjwp\Dropbox\_psychopyStuff\experiments\openIAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9644F09-B542-4D03-A30E-5CF61CAAE627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="14010"/>
+    <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,24 +18,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jonathan Peirce</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -80,43 +73,43 @@
     <t>CorrAns</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>Pleasure</t>
-  </si>
-  <si>
-    <t>Agony</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Evil</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>Nasty</t>
-  </si>
-  <si>
     <t>stimuli/blank.png</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Feliz</t>
+  </si>
+  <si>
+    <t>Dolor</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Agonía</t>
+  </si>
+  <si>
+    <t>Amor</t>
+  </si>
+  <si>
+    <t>Malvado</t>
+  </si>
+  <si>
+    <t>Alegría</t>
+  </si>
+  <si>
+    <t>Desagradable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,20 +499,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,111 +524,111 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -614,24 +641,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
